--- a/data/fractionation/Quant/230330 Batch 142 IJKL Quant.xlsx
+++ b/data/fractionation/Quant/230330 Batch 142 IJKL Quant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SIP Pipeline\Mike\230322 Batch 142 Water yr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A80C7-5849-44BB-9D43-DA61A6D0370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860374EF-2F00-49A0-9B3A-917247778F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="10" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -465,8 +465,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +510,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -513,10 +525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -540,8 +553,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7948,9 +7963,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7988,9 +8003,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8023,26 +8038,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8075,26 +8073,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8274,13 +8255,13 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -8573,7 +8554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8866,12 +8847,12 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -8903,7 +8884,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8945,7 +8926,7 @@
         <v>-1.1211772360979029</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8988,7 +8969,7 @@
         <v>0.50052555182942082</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -9031,7 +9012,7 @@
         <v>4.9652134741478546</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9074,7 +9055,7 @@
         <v>28.329746233545222</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9117,7 +9098,7 @@
         <v>66.049351819410376</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9160,7 +9141,7 @@
         <v>734.07077431302866</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -9199,7 +9180,7 @@
         <v>1112.247860253266</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -9233,7 +9214,7 @@
         <v>547.53491165724006</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -9260,7 +9241,7 @@
         <v>135.12187797187045</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -9287,7 +9268,7 @@
         <v>61.804895139896885</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -9314,7 +9295,7 @@
         <v>47.630011512087691</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -9341,7 +9322,7 @@
         <v>13.954652385004254</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -9368,7 +9349,7 @@
         <v>4.8250663196356172</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9395,7 +9376,7 @@
         <v>1.6817658541468541</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -9422,7 +9403,7 @@
         <v>2.1022073176835674</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9449,7 +9430,7 @@
         <v>0.42044146353671352</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9476,7 +9457,7 @@
         <v>0.10010511036588418</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -9503,7 +9484,7 @@
         <v>0.28029430902447572</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9530,7 +9511,7 @@
         <v>11.251814405125382</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -9557,7 +9538,7 @@
         <v>0.32033635317082931</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -9584,7 +9565,7 @@
         <v>2.0021022073176832E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -9611,7 +9592,7 @@
         <v>1.3213874568296711</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -9638,7 +9619,7 @@
         <v>-1.0811351919515491</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -9665,7 +9646,7 @@
         <v>-0.58060964012212823</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -9692,7 +9673,7 @@
         <v>1.5416186996346162</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -9719,7 +9700,7 @@
         <v>5.2655288052455074</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -9746,7 +9727,7 @@
         <v>19.760748786225534</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -9773,7 +9754,7 @@
         <v>40.362380499524505</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -9800,7 +9781,7 @@
         <v>73.837529405876168</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9827,7 +9808,7 @@
         <v>146.43375544321538</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -9854,7 +9835,7 @@
         <v>182.2513639321287</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9881,7 +9862,7 @@
         <v>327.94434155863655</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -9908,7 +9889,7 @@
         <v>368.18659592572197</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9935,7 +9916,7 @@
         <v>290.78532459082032</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -9962,7 +9943,7 @@
         <v>174.28299714700432</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -9989,7 +9970,7 @@
         <v>73.977676560388403</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -10016,7 +9997,7 @@
         <v>35.897692577206065</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -10043,7 +10024,7 @@
         <v>26.48781220281295</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -10070,7 +10051,7 @@
         <v>11.752339956954803</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -10097,7 +10078,7 @@
         <v>8.3687872265879175</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -10124,7 +10105,7 @@
         <v>8.1685770058561484</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -10151,7 +10132,7 @@
         <v>6.3666850192702338</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -10178,7 +10159,7 @@
         <v>5.6259072025626908</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -10205,7 +10186,7 @@
         <v>1.0210721257320186</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10232,7 +10213,7 @@
         <v>-0.44046248560989038</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -10259,7 +10240,7 @@
         <v>-0.70073577256118913</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -10286,7 +10267,7 @@
         <v>0.26027328695129887</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -10313,7 +10294,7 @@
         <v>0.22023124280494519</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -10340,7 +10321,7 @@
         <v>4.1643725912207818</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -10367,7 +10348,7 @@
         <v>27.248611041593669</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -10394,7 +10375,7 @@
         <v>70.153661344411631</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10421,7 +10402,7 @@
         <v>173.06171480054053</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +10429,7 @@
         <v>332.88953401071126</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -10475,7 +10456,7 @@
         <v>533.01967065418683</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -10502,7 +10483,7 @@
         <v>566.39471445017261</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -10529,7 +10510,7 @@
         <v>354.59232193803496</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -10556,7 +10537,7 @@
         <v>168.91736323139295</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -10583,7 +10564,7 @@
         <v>78.021923019170117</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -10610,7 +10591,7 @@
         <v>40.942990139646625</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -10637,7 +10618,7 @@
         <v>23.524700935982782</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -10664,7 +10645,7 @@
         <v>12.232844486711045</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -10691,7 +10672,7 @@
         <v>7.8081986085389659</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -10718,7 +10699,7 @@
         <v>10.591120676710545</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -10745,7 +10726,7 @@
         <v>6.4467691075629405</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -10772,7 +10753,7 @@
         <v>3.0632163771960559</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -10799,7 +10780,7 @@
         <v>1.9019970969517994</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -10826,7 +10807,7 @@
         <v>-1.1211772360979029</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -10853,7 +10834,7 @@
         <v>2.0821862956103909</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -10880,7 +10861,7 @@
         <v>6.1664747985384647</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -10907,7 +10888,7 @@
         <v>13.233895590369888</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -10934,7 +10915,7 @@
         <v>32.173782471595175</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -10961,7 +10942,7 @@
         <v>56.59942940087091</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -10988,7 +10969,7 @@
         <v>120.90695229991491</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -11015,7 +10996,7 @@
         <v>164.05225486761097</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -11042,7 +11023,7 @@
         <v>213.52420041043092</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -11069,7 +11050,7 @@
         <v>396.83667851243803</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -11096,7 +11077,7 @@
         <v>410.85139396366179</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -11123,7 +11104,7 @@
         <v>242.65478752690325</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -11150,7 +11131,7 @@
         <v>128.63506682016117</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -11177,7 +11158,7 @@
         <v>55.938735672456076</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -11204,7 +11185,7 @@
         <v>31.272836478302217</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -11231,7 +11212,7 @@
         <v>20.121127183542718</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -11258,7 +11239,7 @@
         <v>12.052655288052454</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -11285,7 +11266,7 @@
         <v>11.231793383052205</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -11312,7 +11293,7 @@
         <v>10.951499074027728</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -11339,7 +11320,7 @@
         <v>6.4667901296361174</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -11366,7 +11347,7 @@
         <v>2.7829220681715801</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -11393,7 +11374,7 @@
         <v>1.3213874568296711</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -11401,7 +11382,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -11409,7 +11390,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -11417,7 +11398,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -11425,7 +11406,7 @@
         <v>21176</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -11433,7 +11414,7 @@
         <v>11902</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -11441,7 +11422,7 @@
         <v>6292</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -11449,7 +11430,7 @@
         <v>9504</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -11473,13 +11454,13 @@
       <selection activeCell="N9" sqref="N9:N96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -11772,7 +11753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -12065,12 +12046,12 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="17.350000000000001" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:98" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="N7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12102,7 +12083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -12141,7 +12122,7 @@
         <v>-1.1153712094806554</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -12180,7 +12161,7 @@
         <v>0.49793357566100682</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -12219,7 +12200,7 @@
         <v>4.9395010705571876</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -12258,7 +12239,7 @@
         <v>28.183040382412983</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12297,7 +12278,7 @@
         <v>65.707314644226472</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -12336,7 +12317,7 @@
         <v>730.26938206443265</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -12375,7 +12356,7 @@
         <v>1106.4880744908628</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -12409,7 +12390,7 @@
         <v>544.69949708708862</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -12436,7 +12417,7 @@
         <v>134.4221480854454</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -12463,7 +12444,7 @@
         <v>61.484837922621125</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -12490,7 +12471,7 @@
         <v>47.383359059901409</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -12517,7 +12498,7 @@
         <v>13.88238808942887</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -12544,7 +12525,7 @@
         <v>4.8000796693721064</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -12571,7 +12552,7 @@
         <v>1.673056814220983</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -12598,7 +12579,7 @@
         <v>2.0913210177762287</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -12625,7 +12606,7 @@
         <v>0.41826420355524574</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -12652,7 +12633,7 @@
         <v>9.9586715132201367E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -12679,7 +12660,7 @@
         <v>0.27884280237016384</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -12706,7 +12687,7 @@
         <v>11.193546780859434</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -12733,7 +12714,7 @@
         <v>0.31867748842304433</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12760,7 +12741,7 @@
         <v>1.9917343026440271E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -12787,7 +12768,7 @@
         <v>1.314544639745058</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -12814,7 +12795,7 @@
         <v>-1.0755365234277747</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -12841,7 +12822,7 @@
         <v>-0.5776029477667679</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -12868,7 +12849,7 @@
         <v>1.5336354130359011</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -12895,7 +12876,7 @@
         <v>5.2382612159537922</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -12922,7 +12903,7 @@
         <v>19.658417567096549</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -12949,7 +12930,7 @@
         <v>40.153363541303591</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -12976,7 +12957,7 @@
         <v>73.455161081511719</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -13003,7 +12984,7 @@
         <v>145.67544689538414</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13030,7 +13011,7 @@
         <v>181.30757356968581</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -13057,7 +13038,7 @@
         <v>326.24607877309165</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -13084,7 +13065,7 @@
         <v>366.27993825623662</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -13111,7 +13092,7 @@
         <v>289.27949011601856</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -13138,7 +13119,7 @@
         <v>173.38047104516255</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -13165,7 +13146,7 @@
         <v>73.594582482696808</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -13192,7 +13173,7 @@
         <v>35.711796046407407</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -13219,7 +13200,7 @@
         <v>26.350644823980481</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -13246,7 +13227,7 @@
         <v>11.69148035652044</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -13273,7 +13254,7 @@
         <v>8.3254493850520337</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -13300,7 +13281,7 @@
         <v>8.1262759547876318</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13327,7 +13308,7 @@
         <v>6.3337150824080073</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -13354,7 +13335,7 @@
         <v>5.5967733904297168</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -13381,7 +13362,7 @@
         <v>1.015784494348454</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -13408,7 +13389,7 @@
         <v>-0.43818154658168601</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -13435,7 +13416,7 @@
         <v>-0.69710700592540964</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -13462,7 +13443,7 @@
         <v>0.25892545934372357</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -13489,7 +13470,7 @@
         <v>0.21909077329084301</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -13516,7 +13497,7 @@
         <v>4.1428073494995772</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -13543,7 +13524,7 @@
         <v>27.107503858985211</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -13570,7 +13551,7 @@
         <v>69.790369964646715</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -13597,7 +13578,7 @@
         <v>172.16551312054972</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -13624,7 +13605,7 @@
         <v>331.16566250062243</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13651,7 +13632,7 @@
         <v>530.25942339291942</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -13678,7 +13659,7 @@
         <v>563.46163421799531</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -13705,7 +13686,7 @@
         <v>352.75606234128367</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -13732,7 +13713,7 @@
         <v>168.04262311407658</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -13759,7 +13740,7 @@
         <v>77.617885774037745</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -13786,7 +13767,7 @@
         <v>40.730966489070362</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -13813,7 +13794,7 @@
         <v>23.402878056067319</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -13840,7 +13821,7 @@
         <v>12.169496589155006</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -13867,7 +13848,7 @@
         <v>7.7677637803117063</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -13894,7 +13875,7 @@
         <v>10.536274460986906</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -13921,7 +13902,7 @@
         <v>6.4133844545137677</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -13948,7 +13929,7 @@
         <v>3.0473534830453621</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -13975,7 +13956,7 @@
         <v>1.8921475875118259</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -14002,7 +13983,7 @@
         <v>-1.1153712094806554</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -14029,7 +14010,7 @@
         <v>2.0714036747497886</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -14056,7 +14037,7 @@
         <v>6.1345416521436045</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -14083,7 +14064,7 @@
         <v>13.165363740477021</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -14110,7 +14091,7 @@
         <v>32.007170243489519</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -14137,7 +14118,7 @@
         <v>56.306328735746654</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -14164,7 +14145,7 @@
         <v>120.2808345366728</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -14191,7 +14172,7 @@
         <v>163.2027087586516</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -14218,7 +14199,7 @@
         <v>212.4184633769855</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -14245,7 +14226,7 @@
         <v>394.78165612707267</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -14272,7 +14253,7 @@
         <v>408.72379624558084</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14299,7 +14280,7 @@
         <v>241.3981974804561</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -14326,7 +14307,7 @@
         <v>127.96892894487875</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -14353,7 +14334,7 @@
         <v>55.649056415874121</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -14380,7 +14361,7 @@
         <v>31.110889807299706</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -14407,7 +14388,7 @@
         <v>20.016929741572476</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -14434,7 +14415,7 @@
         <v>11.990240501917045</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -14461,7 +14442,7 @@
         <v>11.173629437832993</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -14488,7 +14469,7 @@
         <v>10.894786635462829</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -14515,7 +14496,7 @@
         <v>6.4333017975402083</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -14542,7 +14523,7 @@
         <v>2.768510680675198</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -14569,7 +14550,7 @@
         <v>1.314544639745058</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -14577,7 +14558,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -14585,7 +14566,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -14593,7 +14574,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -14601,7 +14582,7 @@
         <v>21176</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -14609,7 +14590,7 @@
         <v>11902</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -14617,7 +14598,7 @@
         <v>6292</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -14625,7 +14606,7 @@
         <v>9504</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -14648,13 +14629,13 @@
       <selection activeCell="N9" sqref="N9:N96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -14947,7 +14928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -15240,12 +15221,12 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -15277,7 +15258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -15316,7 +15297,7 @@
         <v>-0.51677018633540373</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15355,7 +15336,7 @@
         <v>-0.35776397515527947</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -15394,7 +15375,7 @@
         <v>3.1204968944099383</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -15433,7 +15414,7 @@
         <v>29.197515527950308</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15472,7 +15453,7 @@
         <v>66.703105590062108</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -15511,7 +15492,7 @@
         <v>698.27577639751553</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15550,7 +15531,7 @@
         <v>1082.1366459627329</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15584,7 +15565,7 @@
         <v>533.52546583850926</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -15611,7 +15592,7 @@
         <v>131.93540372670807</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -15638,7 +15619,7 @@
         <v>59.031055900621119</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -15665,7 +15646,7 @@
         <v>45.734161490683228</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -15692,7 +15673,7 @@
         <v>21.127950310559008</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -15719,7 +15700,7 @@
         <v>3.7366459627329189</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -15746,7 +15727,7 @@
         <v>1.0931677018633539</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -15773,7 +15754,7 @@
         <v>0.63602484472049692</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -15800,7 +15781,7 @@
         <v>-0.29813664596273293</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -15827,7 +15808,7 @@
         <v>-0.55652173913043479</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -15854,7 +15835,7 @@
         <v>-0.4372670807453416</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -15881,7 +15862,7 @@
         <v>-0.41739130434782612</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -15908,7 +15889,7 @@
         <v>-1.5900621118012424</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -15935,7 +15916,7 @@
         <v>-0.75527950310559011</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -15962,7 +15943,7 @@
         <v>0.95403726708074532</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -15989,7 +15970,7 @@
         <v>-1.1329192546583851</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -16016,7 +15997,7 @@
         <v>-1.0534161490683229</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -16043,7 +16024,7 @@
         <v>1.351552795031056</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -16070,7 +16051,7 @@
         <v>5.3267080745341611</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -16097,7 +16078,7 @@
         <v>18.067080745341613</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -16124,7 +16105,7 @@
         <v>38.916770186335405</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -16151,7 +16132,7 @@
         <v>77.177639751552803</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16178,7 +16159,7 @@
         <v>142.13167701863352</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -16205,7 +16186,7 @@
         <v>180.2335403726708</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -16232,7 +16213,7 @@
         <v>321.13291925465836</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -16259,7 +16240,7 @@
         <v>364.64099378881991</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16286,7 +16267,7 @@
         <v>289.55031055900622</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -16313,7 +16294,7 @@
         <v>177.82857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -16340,7 +16321,7 @@
         <v>72.785093167701859</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -16367,7 +16348,7 @@
         <v>33.411180124223606</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -16394,7 +16375,7 @@
         <v>24.467080745341615</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -16421,7 +16402,7 @@
         <v>11.488198757763975</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -16448,7 +16429,7 @@
         <v>7.6720496894409944</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -16475,7 +16456,7 @@
         <v>8.4869565217391312</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -16502,7 +16483,7 @@
         <v>14.827329192546584</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -16529,7 +16510,7 @@
         <v>2.4844720496894408</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -16556,7 +16537,7 @@
         <v>0.1391304347826087</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -16583,7 +16564,7 @@
         <v>-1.0732919254658384</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -16610,7 +16591,7 @@
         <v>-0.83478260869565224</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -16637,7 +16618,7 @@
         <v>-0.33788819875776399</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -16664,7 +16645,7 @@
         <v>5.9627329192546583E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -16691,7 +16672,7 @@
         <v>4.0745341614906829</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -16718,7 +16699,7 @@
         <v>28.104347826086954</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -16745,7 +16726,7 @@
         <v>68.710559006211184</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -16772,7 +16753,7 @@
         <v>163.59751552795032</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16799,7 +16780,7 @@
         <v>335.28447204968938</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -16826,7 +16807,7 @@
         <v>504.78509316770186</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -16853,7 +16834,7 @@
         <v>544.05962732919261</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -16880,7 +16861,7 @@
         <v>335.40372670807449</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -16907,7 +16888,7 @@
         <v>164.19378881987575</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -16934,7 +16915,7 @@
         <v>75.885714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -16961,7 +16942,7 @@
         <v>39.831055900621116</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -16988,7 +16969,7 @@
         <v>23.453416149068325</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -17015,7 +16996,7 @@
         <v>11.249689440993789</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -17042,7 +17023,7 @@
         <v>6.7180124223602489</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -17069,7 +17050,7 @@
         <v>9.0236024844720504</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -17096,7 +17077,7 @@
         <v>5.5254658385093167</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -17123,7 +17104,7 @@
         <v>3.1801242236024847</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -17150,7 +17131,7 @@
         <v>0.1391304347826087</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -17177,7 +17158,7 @@
         <v>-9.9378881987577647E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -17204,7 +17185,7 @@
         <v>0.25838509316770186</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -17231,7 +17212,7 @@
         <v>5.366459627329192</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -17258,7 +17239,7 @@
         <v>11.249689440993789</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -17285,7 +17266,7 @@
         <v>29.575155279503104</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -17312,7 +17293,7 @@
         <v>49.291925465838503</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -17339,7 +17320,7 @@
         <v>97.311801242236015</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -17366,7 +17347,7 @@
         <v>150.99627329192546</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -17393,7 +17374,7 @@
         <v>212.01490683229815</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -17420,7 +17401,7 @@
         <v>379.7863354037267</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -17447,7 +17428,7 @@
         <v>383.52298136645965</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -17474,7 +17455,7 @@
         <v>235.84596273291925</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -17501,7 +17482,7 @@
         <v>124.3031055900621</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -17528,7 +17509,7 @@
         <v>54.479503105590069</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -17555,7 +17536,7 @@
         <v>28.760248447204969</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -17582,7 +17563,7 @@
         <v>17.55031055900621</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -17609,7 +17590,7 @@
         <v>10.593788819875776</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -17636,7 +17617,7 @@
         <v>7.6521739130434785</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -17663,7 +17644,7 @@
         <v>8.0496894409937898</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -17690,7 +17671,7 @@
         <v>5.0285714285714285</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -17717,7 +17698,7 @@
         <v>2.1465838509316768</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -17744,7 +17725,7 @@
         <v>0.51677018633540373</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -17752,7 +17733,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -17760,7 +17741,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -17768,7 +17749,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -17776,7 +17757,7 @@
         <v>20304</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -17784,7 +17765,7 @@
         <v>11690</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -17792,7 +17773,7 @@
         <v>5909</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -17800,7 +17781,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -17819,23 +17800,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68:G89"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.41015625" customWidth="1"/>
-    <col min="3" max="3" width="13.1171875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.1171875" customWidth="1"/>
-    <col min="7" max="8" width="14.703125" customWidth="1"/>
-    <col min="9" max="9" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.07421875" customWidth="1"/>
+    <col min="7" max="8" width="14.69140625" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -17876,7 +17857,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -17917,7 +17898,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -17955,7 +17936,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -17993,7 +17974,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -18031,7 +18012,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -18069,7 +18050,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -18107,7 +18088,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -18145,7 +18126,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -18183,7 +18164,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -18221,7 +18202,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -18259,7 +18240,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -18297,7 +18278,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -18335,7 +18316,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -18370,7 +18351,7 @@
         <v>4.4539306505802143</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -18405,7 +18386,7 @@
         <v>1.4826634567437305</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -18440,7 +18421,7 @@
         <v>1.6098510600600977</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -18475,7 +18456,7 @@
         <v>0.18018967370974215</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -18510,7 +18491,7 @@
         <v>-0.11894330454411642</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -18545,7 +18526,7 @@
         <v>4.0623343549765975E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -18580,7 +18561,7 @@
         <v>7.3426566272123281</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -18615,7 +18596,7 @@
         <v>-0.3170160900691229</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -18650,7 +18631,7 @@
         <v>-0.23844704600199096</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -18693,7 +18674,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18729,7 +18710,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18764,7 +18745,7 @@
         <v>-0.73720957898573969</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18799,7 +18780,7 @@
         <v>1.4756023025671914</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18834,7 +18815,7 @@
         <v>5.2768326985778202</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -18869,7 +18850,7 @@
         <v>19.162082366221231</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -18904,7 +18885,7 @@
         <v>39.810838075721172</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -18939,7 +18920,7 @@
         <v>74.823443412980225</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -18974,7 +18955,7 @@
         <v>144.74695978574437</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19009,7 +18990,7 @@
         <v>181.26415929149513</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19044,7 +19025,7 @@
         <v>325.10777986212878</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19079,7 +19060,7 @@
         <v>366.36917599025958</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19114,7 +19095,7 @@
         <v>289.87170842194837</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19149,7 +19130,7 @@
         <v>175.16401320691276</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19184,7 +19165,7 @@
         <v>73.452450736929038</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19219,7 +19200,7 @@
         <v>35.006889582612359</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19254,7 +19235,7 @@
         <v>25.76851259071168</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19289,7 +19270,7 @@
         <v>11.644006357079739</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19324,7 +19305,7 @@
         <v>8.1220954336936479</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19359,7 +19340,7 @@
         <v>8.2606031607943056</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19381,20 +19362,20 @@
         <f>'Plate 3'!N50</f>
         <v>0.37068322981366458</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>0.22939774411854019</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>0.1223575138577338</v>
+      <c r="G43" s="15">
+        <f>AVERAGE(D43:E43)</f>
+        <v>0.15875500127097802</v>
+      </c>
+      <c r="H43" s="15">
+        <f>STDEV(D43:E43)</f>
+        <v>5.8283164826432863E-4</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>9.1759097647416077</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+        <v>6.3502000508391205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19429,7 +19410,7 @@
         <v>4.5690508808939496</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19465,14 +19446,14 @@
       </c>
       <c r="J45">
         <f>SUM(I24:I45)</f>
-        <v>1797.963703037969</v>
+        <v>1795.1379933240664</v>
       </c>
       <c r="K45" t="e">
         <f>J45/L24*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -19508,7 +19489,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -19543,7 +19524,7 @@
         <v>-0.74420846239408367</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -19578,7 +19559,7 @@
         <v>6.043684917908615E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -19613,7 +19594,7 @@
         <v>0.16631644842944493</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -19648,7 +19629,7 @@
         <v>4.1272380340703476</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -19683,7 +19664,7 @@
         <v>27.486820908888614</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -19718,7 +19699,7 @@
         <v>69.551530105089839</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -19753,7 +19734,7 @@
         <v>169.60824781634685</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -19788,7 +19769,7 @@
         <v>333.11322285367442</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -19823,7 +19804,7 @@
         <v>522.68806240493609</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -19858,7 +19839,7 @@
         <v>557.97199199912018</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -19893,7 +19874,7 @@
         <v>347.58403699579765</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -19928,7 +19909,7 @@
         <v>167.05125838844845</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -19963,7 +19944,7 @@
         <v>77.175174359640721</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -19998,7 +19979,7 @@
         <v>40.501670843112699</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -20033,7 +20014,7 @@
         <v>23.460331713706143</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -20068,7 +20049,7 @@
         <v>11.884010172286612</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -20103,7 +20084,7 @@
         <v>7.4313249370703058</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -20138,7 +20119,7 @@
         <v>10.050332540723169</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -20173,7 +20154,7 @@
         <v>6.1285398001953419</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -20208,7 +20189,7 @@
         <v>3.0968980279479674</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -20251,7 +20232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20287,7 +20268,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20322,7 +20303,7 @@
         <v>1.4706583545092937</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20357,7 +20338,7 @@
         <v>5.8891586926704207</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20392,7 +20373,7 @@
         <v>12.549649590613567</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20427,7 +20408,7 @@
         <v>31.252035998195936</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20462,7 +20443,7 @@
         <v>54.065894534152036</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20497,7 +20478,7 @@
         <v>112.83319602627458</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20532,7 +20513,7 @@
         <v>159.41707897272934</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20567,7 +20548,7 @@
         <v>212.65252353990488</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20602,7 +20583,7 @@
         <v>390.46822334774583</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20637,7 +20618,7 @@
         <v>401.03272385856741</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20672,7 +20653,7 @@
         <v>239.9663159134262</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20707,7 +20688,7 @@
         <v>126.969033785034</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20742,7 +20723,7 @@
         <v>55.355765064640082</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20777,7 +20758,7 @@
         <v>30.381324910935632</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20812,7 +20793,7 @@
         <v>19.229455828040468</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -20847,7 +20828,7 @@
         <v>11.545561536615089</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -20882,7 +20863,7 @@
         <v>10.019198911309559</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -20917,7 +20898,7 @@
         <v>9.9653250501614501</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20952,7 +20933,7 @@
         <v>5.9762211185825844</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -20987,7 +20968,7 @@
         <v>2.5660055332594851</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
